--- a/normeringsgegevens_dummy.xlsx
+++ b/normeringsgegevens_dummy.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\SCC\2022\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\SCC\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0B745-E79F-4121-A8D7-033DC689D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E98D70-E09E-4741-AA9C-BBAF331861CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="-585" windowWidth="21600" windowHeight="11385" xr2:uid="{FBB08C18-E573-43C3-920B-FF1E50B2178D}"/>
+    <workbookView xWindow="32805" yWindow="-3990" windowWidth="27795" windowHeight="16545" xr2:uid="{FBB08C18-E573-43C3-920B-FF1E50B2178D}"/>
   </bookViews>
   <sheets>
     <sheet name="ref_cesuren" sheetId="1" r:id="rId1"/>
     <sheet name="toetsadvies_cesuren" sheetId="2" r:id="rId2"/>
     <sheet name="onderdeelgewichten" sheetId="3" r:id="rId3"/>
-    <sheet name="coronanormering" sheetId="4" r:id="rId4"/>
-    <sheet name="modellen" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>onderdeel</t>
   </si>
@@ -46,12 +44,6 @@
     <t>niveau</t>
   </si>
   <si>
-    <t>cesuur_1pl</t>
-  </si>
-  <si>
-    <t>cesuur_2pl</t>
-  </si>
-  <si>
     <t>LEZEN</t>
   </si>
   <si>
@@ -88,58 +80,10 @@
     <t>havo/vwo -&gt; vwo</t>
   </si>
   <si>
-    <t>toets</t>
-  </si>
-  <si>
     <t>totaal</t>
   </si>
   <si>
-    <t>SCHRIJVEN</t>
-  </si>
-  <si>
-    <t>WOORD</t>
-  </si>
-  <si>
-    <t>BEGRIPPENLIJST</t>
-  </si>
-  <si>
-    <t>LUISTERVAARDIGHEID</t>
-  </si>
-  <si>
-    <t>WOORDENSCHAT</t>
-  </si>
-  <si>
-    <t>DICTEE</t>
-  </si>
-  <si>
-    <t>cum_2019</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>bovengrens</t>
-  </si>
-  <si>
-    <t>cesuur_standaardscore</t>
-  </si>
-  <si>
-    <t>aanbieder</t>
-  </si>
-  <si>
-    <t>voorkeursmodel</t>
-  </si>
-  <si>
-    <t>2pl</t>
-  </si>
-  <si>
-    <t>1pl</t>
-  </si>
-  <si>
-    <t>DUMMY1</t>
-  </si>
-  <si>
-    <t>DUMMYPCET</t>
+    <t>cesuur</t>
   </si>
 </sst>
 </file>
@@ -178,12 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -501,111 +442,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D43DC-7110-49BF-B004-EFC51A9F1F3D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>-2.1208499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>-0.81552000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>-1.8820699999999999</v>
-      </c>
-      <c r="D2">
-        <v>-2.1208499999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-1.5926899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2.1940000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-2.00258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>-0.61180000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-0.81552000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>-1.70695</v>
-      </c>
-      <c r="D4">
-        <v>-1.5926899999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.10414</v>
-      </c>
-      <c r="D5">
-        <v>2.1940000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>-1.65144</v>
-      </c>
-      <c r="D6">
-        <v>-2.00258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>-0.24961</v>
-      </c>
-      <c r="D7">
         <v>-0.43391000000000002</v>
       </c>
     </row>
@@ -617,101 +537,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9510541C-600A-49B8-957B-784EEA5757EB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-2.1675300000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>-1.13056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>-2.09402</v>
-      </c>
-      <c r="C2">
-        <v>-2.1675300000000002</v>
-      </c>
-      <c r="D2">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>-0.48615000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>-1.0422899999999999</v>
-      </c>
-      <c r="C3">
-        <v>-1.13056</v>
-      </c>
-      <c r="D3">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>-0.40988999999999998</v>
-      </c>
-      <c r="C4">
-        <v>-0.48615000000000003</v>
-      </c>
-      <c r="D4">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0.21745</v>
-      </c>
-      <c r="C5">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D5">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
       <c r="B6">
-        <v>0.76551999999999998</v>
-      </c>
-      <c r="C6">
         <v>0.79278000000000004</v>
-      </c>
-      <c r="D6">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -721,307 +602,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA87B93-26E2-483F-95C2-9B22E1F4726D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="C2" s="1">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2" si="0">SUM(B2:J2)</f>
+        <f>SUM(A2:C2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3" si="1">SUM(B3:J3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99AEDD-B20E-4D91-ABA6-3D3D5D7CA069}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.73</v>
-      </c>
-      <c r="C2">
-        <v>0.22</v>
-      </c>
-      <c r="D2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>13.9</v>
-      </c>
-      <c r="C3">
-        <v>0.81</v>
-      </c>
-      <c r="D3">
-        <v>15.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>34.56</v>
-      </c>
-      <c r="C4">
-        <v>1.3</v>
-      </c>
-      <c r="D4">
-        <v>37.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>61.95</v>
-      </c>
-      <c r="C5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D5">
-        <v>64.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>81.91</v>
-      </c>
-      <c r="C6">
-        <v>0.92</v>
-      </c>
-      <c r="D6">
-        <v>83.71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F354CE-47F0-4F17-8E48-AB001736A721}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>